--- a/documents/class/2.xlsx
+++ b/documents/class/2.xlsx
@@ -356,7 +356,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Math</t>
+          <t>Eng</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -366,17 +366,17 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Bio</t>
+          <t>Eng</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>Ver</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>Che</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>T</t>
         </is>
       </c>
     </row>
@@ -393,120 +393,120 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Eng</t>
+          <t>Ver</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Phy</t>
+          <t>Ver</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Che</t>
+          <t>Math</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Bio</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>T</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Ver</t>
-        </is>
-      </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>Bio</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>Eng</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Phy</t>
-        </is>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Ver</t>
+          <t>Math</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Phy</t>
+          <t>Ver</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ver</t>
+          <t>Eng</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Che</t>
+          <t>Bio</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Ver</t>
+          <t>Eng</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Math</t>
+          <t>Bio</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Ver</t>
+          <t>Eng</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Phy</t>
+          <t>Math</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Phy</t>
+          <t>Math</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Ver</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Math</t>
+          <t>Bio</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Eng</t>
+          <t>Che</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Che</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Phy</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>Math</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Che</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Bio</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -518,39 +518,39 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>Che</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ver</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Math</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Bio</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Eng</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Math</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Phy</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Bio</t>
+          <t>Phy</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Math</t>
+          <t>Phy</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -560,24 +560,24 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Math</t>
+          <t>Phy</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Eng</t>
+          <t>Phy</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Bio</t>
+          <t>Ver</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Bio</t>
+          <t>Phy</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Eng</t>
+          <t>Math</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">

--- a/documents/class/2.xlsx
+++ b/documents/class/2.xlsx
@@ -356,81 +356,81 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Math</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>Eng</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Phy</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
         <is>
           <t>Che</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Eng</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Ver</t>
-        </is>
-      </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Che</t>
+          <t>Bio</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Che</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Che</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>Ver</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Che</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Ver</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Ver</t>
-        </is>
-      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Math</t>
+          <t>T</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Ver</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Math</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Che</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Phy</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>Bio</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Bio</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Eng</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Math</t>
         </is>
       </c>
     </row>
@@ -447,7 +447,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Bio</t>
+          <t>Phy</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -457,7 +457,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Bio</t>
+          <t>Math</t>
         </is>
       </c>
     </row>
@@ -469,22 +469,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Math</t>
+          <t>Ver</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Math</t>
+          <t>Phy</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>Bio</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Bio</t>
+          <t>Ver</t>
         </is>
       </c>
     </row>
@@ -496,12 +496,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Che</t>
+          <t>Ver</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Phy</t>
+          <t>Ver</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -511,19 +511,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Phy</t>
+          <t>Math</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Che</t>
+          <t>Phy</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ver</t>
+          <t>Bio</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -538,19 +538,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Bio</t>
+          <t>Phy</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Phy</t>
+          <t>Bio</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Phy</t>
+          <t>Bio</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -560,24 +560,24 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Phy</t>
+          <t>Bio</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Phy</t>
+          <t>Eng</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Ver</t>
+          <t>Phy</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Phy</t>
+          <t>Math</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -587,12 +587,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Math</t>
+          <t>Che</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Bio</t>
+          <t>Eng</t>
         </is>
       </c>
     </row>

--- a/documents/class/2.xlsx
+++ b/documents/class/2.xlsx
@@ -356,169 +356,169 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Math</t>
+          <t>Phy</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Bio</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Bio</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>Eng</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Phy</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Che</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Bio</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Phy</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Ver</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>Che</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Che</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Ver</t>
-        </is>
-      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>Phy</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Ver</t>
+          <t>Bio</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Bio</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>Math</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Che</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Phy</t>
+          <t>Bio</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Bio</t>
+          <t>Math</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>Che</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>Ver</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Ver</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Phy</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>Eng</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Phy</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Eng</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Math</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>Che</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ver</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>Eng</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Ver</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Phy</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Bio</t>
-        </is>
-      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Ver</t>
+          <t>Eng</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>Ver</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Math</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>Che</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Ver</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Ver</t>
-        </is>
-      </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Math</t>
+          <t>Phy</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Math</t>
+          <t>Phy</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Phy</t>
+          <t>Math</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -533,7 +533,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Math</t>
+          <t>Che</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -545,14 +545,14 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>Che</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>Bio</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Bio</t>
-        </is>
-      </c>
       <c r="C8" t="inlineStr">
         <is>
           <t>E</t>
@@ -560,19 +560,19 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Bio</t>
+          <t>Math</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Eng</t>
+          <t>Ver</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Phy</t>
+          <t>Eng</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Che</t>
+          <t>Math</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">

--- a/documents/class/2.xlsx
+++ b/documents/class/2.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -356,103 +356,103 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Phy</t>
+          <t>T</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>Ver</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Phy</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>T</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Bio</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Bio</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Eng</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Phy</t>
+          <t>Eng</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ver</t>
+          <t>Phy</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>Eng</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Che</t>
+          <t>Math</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Phy</t>
+          <t>Eng</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Eng</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Ver</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Eng</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>Bio</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Bio</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Math</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Bio</t>
-        </is>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Math</t>
+          <t>Che</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Che</t>
+          <t>Ver</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ver</t>
+          <t>Phy</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Ver</t>
+          <t>Bio</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Phy</t>
+          <t>Eng</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -464,27 +464,27 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>Bio</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Phy</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Bio</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Phy</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Che</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Ver</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Eng</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Ver</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Eng</t>
         </is>
       </c>
     </row>
@@ -496,17 +496,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Math</t>
+          <t>Bio</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>Bio</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>Che</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Phy</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -523,7 +523,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Bio</t>
+          <t>Che</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -538,7 +538,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Phy</t>
+          <t>Ver</t>
         </is>
       </c>
     </row>
@@ -550,7 +550,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Bio</t>
+          <t>Ver</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -565,19 +565,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Ver</t>
+          <t>Che</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Eng</t>
+          <t>Math</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Math</t>
+          <t>Ver</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -592,7 +592,34 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Eng</t>
+          <t>Ver</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Phy</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Math</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Math</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Phy</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Math</t>
         </is>
       </c>
     </row>
